--- a/Marketing/bu.roomme.xlsx
+++ b/Marketing/bu.roomme.xlsx
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="B302" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
@@ -3462,7 +3462,7 @@
         </is>
       </c>
       <c r="B303" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="B304" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="B305" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="B306" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B307" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="B308" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="B309" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="B310" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
@@ -3542,7 +3542,7 @@
         </is>
       </c>
       <c r="B311" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="B312" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="B313" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="B314" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
@@ -3582,7 +3582,7 @@
         </is>
       </c>
       <c r="B315" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="B316" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="B317" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="B318" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319">
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="B319" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="B320" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
@@ -3642,7 +3642,7 @@
         </is>
       </c>
       <c r="B321" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">

--- a/Marketing/bu.roomme.xlsx
+++ b/Marketing/bu.roomme.xlsx
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="B322" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323">
@@ -3662,7 +3662,7 @@
         </is>
       </c>
       <c r="B323" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="B324" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="B325" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="B326" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="B327" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
@@ -3712,7 +3712,7 @@
         </is>
       </c>
       <c r="B328" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
@@ -3722,7 +3722,7 @@
         </is>
       </c>
       <c r="B329" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="B330" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="B331" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="B332" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
@@ -3762,7 +3762,7 @@
         </is>
       </c>
       <c r="B333" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="B334" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="B335" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="B336" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
@@ -3802,7 +3802,7 @@
         </is>
       </c>
       <c r="B337" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
@@ -3812,7 +3812,7 @@
         </is>
       </c>
       <c r="B338" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
@@ -3822,7 +3822,7 @@
         </is>
       </c>
       <c r="B339" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="B340" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341">
@@ -3842,7 +3842,7 @@
         </is>
       </c>
       <c r="B341" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342">
@@ -3852,7 +3852,7 @@
         </is>
       </c>
       <c r="B342" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
@@ -3862,7 +3862,7 @@
         </is>
       </c>
       <c r="B343" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
@@ -3872,7 +3872,7 @@
         </is>
       </c>
       <c r="B344" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
@@ -3882,7 +3882,7 @@
         </is>
       </c>
       <c r="B345" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="B346" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
@@ -3902,7 +3902,7 @@
         </is>
       </c>
       <c r="B347" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348">
@@ -3912,7 +3912,7 @@
         </is>
       </c>
       <c r="B348" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
@@ -3922,7 +3922,7 @@
         </is>
       </c>
       <c r="B349" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="B350" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="B351" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B352" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
@@ -3962,7 +3962,7 @@
         </is>
       </c>
       <c r="B353" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354">
@@ -3972,7 +3972,7 @@
         </is>
       </c>
       <c r="B354" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
@@ -3982,7 +3982,7 @@
         </is>
       </c>
       <c r="B355" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356">
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="B356" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
@@ -4002,7 +4002,7 @@
         </is>
       </c>
       <c r="B357" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
@@ -4012,7 +4012,7 @@
         </is>
       </c>
       <c r="B358" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
@@ -4022,7 +4022,7 @@
         </is>
       </c>
       <c r="B359" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="B360" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B361" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">

--- a/Marketing/bu.roomme.xlsx
+++ b/Marketing/bu.roomme.xlsx
@@ -4052,7 +4052,7 @@
         </is>
       </c>
       <c r="B362" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
@@ -4062,7 +4062,7 @@
         </is>
       </c>
       <c r="B363" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364">
@@ -4072,7 +4072,7 @@
         </is>
       </c>
       <c r="B364" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="B365" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="B366" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367">
@@ -4102,7 +4102,7 @@
         </is>
       </c>
       <c r="B367" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="B368" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
@@ -4122,7 +4122,7 @@
         </is>
       </c>
       <c r="B369" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B370" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
@@ -4142,7 +4142,7 @@
         </is>
       </c>
       <c r="B371" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="B372" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373">
@@ -4162,7 +4162,7 @@
         </is>
       </c>
       <c r="B373" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
@@ -4172,7 +4172,7 @@
         </is>
       </c>
       <c r="B374" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375">
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="B375" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376">
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="B376" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377">
@@ -4202,7 +4202,7 @@
         </is>
       </c>
       <c r="B377" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378">
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="B378" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379">
@@ -4222,7 +4222,7 @@
         </is>
       </c>
       <c r="B379" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="B380" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
@@ -4242,7 +4242,7 @@
         </is>
       </c>
       <c r="B381" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382">
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="B382" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383">
@@ -4262,7 +4262,7 @@
         </is>
       </c>
       <c r="B383" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384">
@@ -4272,7 +4272,7 @@
         </is>
       </c>
       <c r="B384" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
@@ -4282,7 +4282,7 @@
         </is>
       </c>
       <c r="B385" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386">
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="B386" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387">
@@ -4302,7 +4302,7 @@
         </is>
       </c>
       <c r="B387" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388">
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="B388" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389">
@@ -4322,7 +4322,7 @@
         </is>
       </c>
       <c r="B389" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390">
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="B390" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
@@ -4342,7 +4342,7 @@
         </is>
       </c>
       <c r="B391" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
@@ -4352,7 +4352,7 @@
         </is>
       </c>
       <c r="B392" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393">
@@ -4362,7 +4362,7 @@
         </is>
       </c>
       <c r="B393" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394">
@@ -4372,7 +4372,7 @@
         </is>
       </c>
       <c r="B394" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
@@ -4382,7 +4382,7 @@
         </is>
       </c>
       <c r="B395" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
@@ -4392,7 +4392,7 @@
         </is>
       </c>
       <c r="B396" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397">
@@ -4402,7 +4402,7 @@
         </is>
       </c>
       <c r="B397" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="B398" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399">
@@ -4422,7 +4422,7 @@
         </is>
       </c>
       <c r="B399" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400">
@@ -4432,7 +4432,7 @@
         </is>
       </c>
       <c r="B400" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="B401" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">
@@ -4452,7 +4452,7 @@
         </is>
       </c>
       <c r="B402" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403">
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B403" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404">
@@ -4472,7 +4472,7 @@
         </is>
       </c>
       <c r="B404" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405">
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="B405" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406">
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="B406" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407">
@@ -4502,7 +4502,7 @@
         </is>
       </c>
       <c r="B407" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408">
@@ -4512,7 +4512,7 @@
         </is>
       </c>
       <c r="B408" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409">
@@ -4522,7 +4522,7 @@
         </is>
       </c>
       <c r="B409" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
@@ -4532,7 +4532,7 @@
         </is>
       </c>
       <c r="B410" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411">
@@ -4542,7 +4542,7 @@
         </is>
       </c>
       <c r="B411" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412">
@@ -4552,7 +4552,7 @@
         </is>
       </c>
       <c r="B412" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413">
@@ -4562,7 +4562,7 @@
         </is>
       </c>
       <c r="B413" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414">
@@ -4572,7 +4572,7 @@
         </is>
       </c>
       <c r="B414" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415">
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="B415" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416">
@@ -4592,7 +4592,7 @@
         </is>
       </c>
       <c r="B416" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417">
@@ -4602,7 +4602,7 @@
         </is>
       </c>
       <c r="B417" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418">
@@ -4612,7 +4612,7 @@
         </is>
       </c>
       <c r="B418" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419">
@@ -4622,7 +4622,7 @@
         </is>
       </c>
       <c r="B419" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420">
@@ -4632,7 +4632,7 @@
         </is>
       </c>
       <c r="B420" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421">
@@ -4642,7 +4642,7 @@
         </is>
       </c>
       <c r="B421" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422">
@@ -4652,7 +4652,7 @@
         </is>
       </c>
       <c r="B422" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423">
@@ -4662,7 +4662,7 @@
         </is>
       </c>
       <c r="B423" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="B424" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425">
@@ -4682,7 +4682,7 @@
         </is>
       </c>
       <c r="B425" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426">
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="B426" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427">
@@ -4702,7 +4702,7 @@
         </is>
       </c>
       <c r="B427" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428">
@@ -4712,7 +4712,7 @@
         </is>
       </c>
       <c r="B428" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429">
@@ -4722,7 +4722,7 @@
         </is>
       </c>
       <c r="B429" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430">
@@ -4732,7 +4732,7 @@
         </is>
       </c>
       <c r="B430" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431">
@@ -4742,7 +4742,7 @@
         </is>
       </c>
       <c r="B431" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432">
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="B432" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433">
@@ -4762,7 +4762,7 @@
         </is>
       </c>
       <c r="B433" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434">
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="B434" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435">
@@ -4782,7 +4782,7 @@
         </is>
       </c>
       <c r="B435" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436">
@@ -4792,7 +4792,7 @@
         </is>
       </c>
       <c r="B436" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437">
@@ -4802,7 +4802,7 @@
         </is>
       </c>
       <c r="B437" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438">
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="B438" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439">
@@ -4822,7 +4822,7 @@
         </is>
       </c>
       <c r="B439" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440">
@@ -4832,7 +4832,7 @@
         </is>
       </c>
       <c r="B440" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441">
@@ -4842,7 +4842,7 @@
         </is>
       </c>
       <c r="B441" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442">
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="B442" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443">
@@ -4862,7 +4862,7 @@
         </is>
       </c>
       <c r="B443" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444">
@@ -4872,7 +4872,7 @@
         </is>
       </c>
       <c r="B444" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445">
@@ -4882,7 +4882,7 @@
         </is>
       </c>
       <c r="B445" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446">
@@ -4892,7 +4892,7 @@
         </is>
       </c>
       <c r="B446" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447">
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="B447" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448">
@@ -4912,7 +4912,7 @@
         </is>
       </c>
       <c r="B448" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449">
@@ -4922,7 +4922,7 @@
         </is>
       </c>
       <c r="B449" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="B450" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451">
@@ -4942,7 +4942,7 @@
         </is>
       </c>
       <c r="B451" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452">
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="B452" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
@@ -4962,7 +4962,7 @@
         </is>
       </c>
       <c r="B453" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454">
@@ -4972,7 +4972,7 @@
         </is>
       </c>
       <c r="B454" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455">
@@ -4982,7 +4982,7 @@
         </is>
       </c>
       <c r="B455" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456">
@@ -4992,7 +4992,7 @@
         </is>
       </c>
       <c r="B456" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457">
@@ -5002,7 +5002,7 @@
         </is>
       </c>
       <c r="B457" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458">
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="B458" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459">
@@ -5022,7 +5022,7 @@
         </is>
       </c>
       <c r="B459" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460">
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="B460" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461">
@@ -5042,7 +5042,7 @@
         </is>
       </c>
       <c r="B461" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462">
@@ -5052,7 +5052,7 @@
         </is>
       </c>
       <c r="B462" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463">
@@ -5062,7 +5062,7 @@
         </is>
       </c>
       <c r="B463" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464">
@@ -5072,7 +5072,7 @@
         </is>
       </c>
       <c r="B464" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465">
@@ -5082,7 +5082,7 @@
         </is>
       </c>
       <c r="B465" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466">
@@ -5092,7 +5092,7 @@
         </is>
       </c>
       <c r="B466" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467">
@@ -5102,7 +5102,7 @@
         </is>
       </c>
       <c r="B467" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468">
@@ -5112,7 +5112,7 @@
         </is>
       </c>
       <c r="B468" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469">
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="B469" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470">
@@ -5132,7 +5132,7 @@
         </is>
       </c>
       <c r="B470" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471">
@@ -5142,7 +5142,7 @@
         </is>
       </c>
       <c r="B471" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472">
@@ -5152,7 +5152,7 @@
         </is>
       </c>
       <c r="B472" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473">
@@ -5162,7 +5162,7 @@
         </is>
       </c>
       <c r="B473" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474">
@@ -5172,7 +5172,7 @@
         </is>
       </c>
       <c r="B474" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475">
@@ -5182,7 +5182,7 @@
         </is>
       </c>
       <c r="B475" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476">
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="B476" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477">
@@ -5202,7 +5202,7 @@
         </is>
       </c>
       <c r="B477" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478">
@@ -5212,7 +5212,7 @@
         </is>
       </c>
       <c r="B478" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479">
@@ -5222,7 +5222,7 @@
         </is>
       </c>
       <c r="B479" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480">
@@ -5232,7 +5232,7 @@
         </is>
       </c>
       <c r="B480" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481">
@@ -5242,7 +5242,7 @@
         </is>
       </c>
       <c r="B481" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B482" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483">
@@ -5262,7 +5262,7 @@
         </is>
       </c>
       <c r="B483" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484">
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="B484" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485">
@@ -5282,7 +5282,7 @@
         </is>
       </c>
       <c r="B485" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486">
@@ -5292,7 +5292,7 @@
         </is>
       </c>
       <c r="B486" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487">
@@ -5302,7 +5302,7 @@
         </is>
       </c>
       <c r="B487" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488">
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="B488" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489">
@@ -5322,7 +5322,7 @@
         </is>
       </c>
       <c r="B489" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490">
@@ -5332,7 +5332,7 @@
         </is>
       </c>
       <c r="B490" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491">
@@ -5342,7 +5342,7 @@
         </is>
       </c>
       <c r="B491" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492">
@@ -5352,7 +5352,7 @@
         </is>
       </c>
       <c r="B492" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493">
@@ -5362,7 +5362,7 @@
         </is>
       </c>
       <c r="B493" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494">
@@ -5372,7 +5372,7 @@
         </is>
       </c>
       <c r="B494" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495">
@@ -5382,7 +5382,7 @@
         </is>
       </c>
       <c r="B495" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496">
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="B496" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497">
@@ -5402,7 +5402,7 @@
         </is>
       </c>
       <c r="B497" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498">
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B498" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499">
@@ -5422,7 +5422,7 @@
         </is>
       </c>
       <c r="B499" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500">
@@ -5432,7 +5432,7 @@
         </is>
       </c>
       <c r="B500" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501">
@@ -5442,7 +5442,7 @@
         </is>
       </c>
       <c r="B501" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502">
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="B502" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503">
@@ -5462,7 +5462,7 @@
         </is>
       </c>
       <c r="B503" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504">
@@ -5472,7 +5472,7 @@
         </is>
       </c>
       <c r="B504" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505">
@@ -5482,7 +5482,7 @@
         </is>
       </c>
       <c r="B505" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506">
@@ -5492,7 +5492,7 @@
         </is>
       </c>
       <c r="B506" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507">
@@ -5502,7 +5502,7 @@
         </is>
       </c>
       <c r="B507" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508">
@@ -5512,7 +5512,7 @@
         </is>
       </c>
       <c r="B508" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509">
@@ -5522,7 +5522,7 @@
         </is>
       </c>
       <c r="B509" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510">
@@ -5532,7 +5532,7 @@
         </is>
       </c>
       <c r="B510" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511">
@@ -5542,7 +5542,7 @@
         </is>
       </c>
       <c r="B511" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512">
@@ -5552,7 +5552,7 @@
         </is>
       </c>
       <c r="B512" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513">
@@ -5562,7 +5562,7 @@
         </is>
       </c>
       <c r="B513" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514">
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="B514" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515">
@@ -5582,7 +5582,7 @@
         </is>
       </c>
       <c r="B515" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516">
@@ -5592,7 +5592,7 @@
         </is>
       </c>
       <c r="B516" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517">
@@ -5602,7 +5602,7 @@
         </is>
       </c>
       <c r="B517" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518">
@@ -5612,7 +5612,7 @@
         </is>
       </c>
       <c r="B518" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519">
@@ -5622,7 +5622,7 @@
         </is>
       </c>
       <c r="B519" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520">
@@ -5632,7 +5632,7 @@
         </is>
       </c>
       <c r="B520" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521">
@@ -5642,7 +5642,7 @@
         </is>
       </c>
       <c r="B521" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522">

--- a/Marketing/bu.roomme.xlsx
+++ b/Marketing/bu.roomme.xlsx
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="B170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="B176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="B179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="B180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="B182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="B183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="B185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="B186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="B188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="B189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="B191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="B192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="B194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="B195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="B198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="B200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="B201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="B203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="B204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="B206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="B209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="B210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="B213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="B214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="B215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="B216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="B218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="B219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="B221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="B222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B223" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="B224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="B225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="B227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B228" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B229" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="B230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="B231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="B232" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="B233" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="B234" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="B235" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="B236" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="B237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="B239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="B240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="B242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="B243" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="B244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="B245" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="B246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B247" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="B248" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="B249" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="B250" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
@@ -2942,7 +2942,7 @@
         </is>
       </c>
       <c r="B251" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="B252" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="B253" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="B254" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="B255" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B256" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="B257" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="B258" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B259" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="B260" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="B261" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="B262" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="B263" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="B264" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="B265" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="B266" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="B267" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="B268" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="B269" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="B270" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="B271" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="B272" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="B273" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="B274" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="B275" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="B276" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="B277" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="B278" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="B279" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="B280" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="B281" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
@@ -3252,7 +3252,7 @@
         </is>
       </c>
       <c r="B282" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="B283" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="B284" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="B285" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="B286" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="B287" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="B288" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="B289" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="B290" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B291" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="B292" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="B293" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="B294" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
@@ -3382,7 +3382,7 @@
         </is>
       </c>
       <c r="B295" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="B296" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="B297" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="B298" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="B299" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="B300" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="B301" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">

--- a/Marketing/bu.roomme.xlsx
+++ b/Marketing/bu.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B428"/>
+  <dimension ref="A1:B398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>thomas_williamsss3</t>
+          <t>tutelamax</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ianm0rris</t>
+          <t>tej.g36</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>nikhil.m.khem</t>
+          <t>odonn311</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>chrischo_04</t>
+          <t>ch.anel131</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>priscilzzz</t>
+          <t>simon.13.42</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>mia.dunlevy</t>
+          <t>cyrus.izk</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>adharasmt</t>
+          <t>8michaelz24</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>_maxkohl_</t>
+          <t>andrewdelp22</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>carly_stiller</t>
+          <t>ntmon.nick</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>sofiawithanef</t>
+          <t>mr.quackadoodles</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>alex.kop1</t>
+          <t>lockietay9</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ivy_bes</t>
+          <t>__aandreagutierrez</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>reesereduta</t>
+          <t>emaliezhitomirsky</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>saxnsc</t>
+          <t>kaleiserra</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>addison.morin</t>
+          <t>xavcla05</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>jasmiine.wu</t>
+          <t>kyla.foreman</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>arj.iyer07</t>
+          <t>jenhuuuuu</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>lulu.kanellos</t>
+          <t>cian.mosss</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>nikix1ng</t>
+          <t>k.rittii</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>theres_austin</t>
+          <t>jadewill16</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>tateboguszewski</t>
+          <t>_rose_zhou</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>julessdamato</t>
+          <t>sienacono</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>kadence_idali05</t>
+          <t>joe__mitri</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>julian_n05</t>
+          <t>ga.brieela_</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>jacoobiann</t>
+          <t>bicheng_zhong</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>jherrera5741</t>
+          <t>dawn.zahler</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>phan_minhphuc</t>
+          <t>nickkannand</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>madison.ingersoll</t>
+          <t>sethac05</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>nessicran</t>
+          <t>andrew.trestman</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>roxy.dubash</t>
+          <t>yasamay__</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>cj_5780</t>
+          <t>alexishutchings_</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>kaleiserra</t>
+          <t>giaguptaa</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>elisemonteree</t>
+          <t>benvol4</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>sarahwy_chow</t>
+          <t>cameronsakoulis</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>_tonysantangelo</t>
+          <t>merrick_rowe_2004</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>sarahchittenden_</t>
+          <t>lestawanandi</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>lmgialanella</t>
+          <t>celineuhrich</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>omarrrfarooq</t>
+          <t>sofia_restivo</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>punexh_fr</t>
+          <t>hibafarzad</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ayaandewani_28</t>
+          <t>daniellaa.parkinson</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>chena3537</t>
+          <t>tamarrotemm</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>eceucari</t>
+          <t>marvinlau_</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ridge.homer</t>
+          <t>mariapoltorykhina.1</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ale.antonuccio</t>
+          <t>emily.worcester</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>avaneesh373</t>
+          <t>_f.borkowski_</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>dhir_ved</t>
+          <t>dorien.ford11</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>abian0926</t>
+          <t>rachael.engen</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>abdel.shousha</t>
+          <t>nicholaschan__</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>mich.i.elle</t>
+          <t>sacorra_</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>andrew_rk04</t>
+          <t>joycelamm_</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>giaguptaa</t>
+          <t>keith.not.yu</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>alaralane</t>
+          <t>nniachanel</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>derenasicii</t>
+          <t>charlietuckerman</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>trishavyass</t>
+          <t>nikix1ng</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>zzz_3lijy</t>
+          <t>queeba_</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>lulu.massenet</t>
+          <t>arize_nwike</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>andrew_.sears</t>
+          <t>yohanchun_</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>summer_genovese</t>
+          <t>isadejesuss</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>bluebeauregarde</t>
+          <t>el.ex.be</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>elliot_teague_</t>
+          <t>chelseaahaddad</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>jameshklein</t>
+          <t>emmagoldenberg_</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>riobee13</t>
+          <t>rheamadhoun</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>gnat.mp3</t>
+          <t>sara.frankel</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>sonia.krishna10</t>
+          <t>nicoledebow</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>st.even.xu</t>
+          <t>mataxily</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ritz.712</t>
+          <t>serafinaviz</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>riley.lackey</t>
+          <t>sana.muneer26</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>kevin._zhao</t>
+          <t>celinetrvn</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>depo._halder</t>
+          <t>julietta.menendez</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>_owen.bl</t>
+          <t>jneedstosleep</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>benthurtle</t>
+          <t>mia.dunlevy</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>aryonchheda</t>
+          <t>arianna.abidi</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>dania_.aguilar_</t>
+          <t>emma.l37</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>bellasantarpia</t>
+          <t>johnny_yan_</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>kamarri_jones</t>
+          <t>_arjunchandra_</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>_erik.yang_</t>
+          <t>youlovejbens</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>tutelamax</t>
+          <t>zachsugerman</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>rhoda.ndu</t>
+          <t>t_williams2309</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>zhenghe7777</t>
+          <t>bunjiroyamada</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>zanelkilany</t>
+          <t>emm_lgpm</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1248,7 +1248,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>s44nd.y</t>
+          <t>robbie_45045</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>adhiraj_6124</t>
+          <t>lmgialanella</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1268,7 +1268,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>sanaya.tonsekar</t>
+          <t>marburnss</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1278,7 +1278,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>toasteater1998</t>
+          <t>bethelg__</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1288,7 +1288,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>michaelhongkr</t>
+          <t>delia.rune</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1298,7 +1298,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>miorikino_</t>
+          <t>teresa_py0</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1308,7 +1308,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>nickkannand</t>
+          <t>a.i.ting</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1318,7 +1318,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>agrawalkritii</t>
+          <t>nadeera_ali</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1328,7 +1328,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>henryywolff</t>
+          <t>sabina.strautnieks</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1338,7 +1338,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>bethelg__</t>
+          <t>kodigone_</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1348,7 +1348,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>joannaechu</t>
+          <t>sam_offsey</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1358,7 +1358,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>nicholasdb8</t>
+          <t>lizbeidy_franco</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1368,7 +1368,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>analiadez</t>
+          <t>taliar28</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1378,7 +1378,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ivn.chxn</t>
+          <t>dukiesss</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1388,7 +1388,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ethanmanfredi</t>
+          <t>sabrinanursekerlisoy</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1398,7 +1398,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>akshattdhingra</t>
+          <t>rianorthover</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1408,7 +1408,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>saranyhsu</t>
+          <t>christopheklein___</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1418,7 +1418,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>cyruss_05</t>
+          <t>clarissafomunung</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1428,7 +1428,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>sonya_mancheva</t>
+          <t>jjuliettex</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1438,7 +1438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>lotteabab</t>
+          <t>brynndrye</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1448,7 +1448,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>bicheng_zhong</t>
+          <t>jasma.z</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>julien.gonzalezp</t>
+          <t>ava.yip</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1468,7 +1468,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>rae_elizabeth4</t>
+          <t>sarahh.han</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1478,7 +1478,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>_thomasdion</t>
+          <t>isabellepowers20</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -1488,7 +1488,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>arnav.nt</t>
+          <t>stellaaa.058</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -1498,7 +1498,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>alex_mannnion</t>
+          <t>timc0719</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -1508,7 +1508,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>graham_ballantyne</t>
+          <t>kush.lw</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -1518,7 +1518,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>msa.liu</t>
+          <t>annaleeedgar</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -1528,7 +1528,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>m_asoto21</t>
+          <t>sara.aggarwal_</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -1538,7 +1538,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>jemmie1217</t>
+          <t>jasmiine.wu</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -1548,7 +1548,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>rheahalebeed</t>
+          <t>rowanh041</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -1558,7 +1558,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>tffnyxn</t>
+          <t>dani.elledanielle</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -1568,7 +1568,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>chrysnelll</t>
+          <t>shunsuke_1222</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -1578,7 +1578,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>tara_chiu</t>
+          <t>_noorhassann</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -1588,7 +1588,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>speshelll_</t>
+          <t>alex_mannnion</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -1598,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>michael.haleblian</t>
+          <t>sofiawithanef</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>jakegendra</t>
+          <t>jackie.5544</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>eric.kim_0329</t>
+          <t>kingduwool</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>victoriamarquardt_</t>
+          <t>kaylaabaltazar</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -1638,7 +1638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>mand.ydonahoe</t>
+          <t>liv_prestandrea</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -1648,7 +1648,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>zachtroderman</t>
+          <t>yugantar_paryani</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -1658,7 +1658,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>yulia_dubro</t>
+          <t>bryce_quintos</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -1668,7 +1668,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>jillianmurrayyy</t>
+          <t>jason_huang12</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -1678,7 +1678,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ebert.k.ella</t>
+          <t>saschasalat</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -1688,7 +1688,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>_.xoxo.abby</t>
+          <t>christiinekiim</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -1698,7 +1698,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>anastasia.forczek</t>
+          <t>brynclark0</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -1708,7 +1708,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>aamir_sheikh155</t>
+          <t>ogyil32</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -1718,7 +1718,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>himsam_park</t>
+          <t>shifa.valani</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -1728,7 +1728,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ali.restivo</t>
+          <t>njshalett9</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -1738,7 +1738,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ameliabaezzz</t>
+          <t>safiyasel</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -1748,7 +1748,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>krissh.h</t>
+          <t>d_aguilera1410</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -1758,7 +1758,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ashleykeneth</t>
+          <t>hasxher</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -1768,7 +1768,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>julietta.menendez</t>
+          <t>hoanganhvu357</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -1778,7 +1778,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>olihettenbach</t>
+          <t>juliusyang_</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -1788,7 +1788,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>riyasandler15</t>
+          <t>giannadicola</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -1798,7 +1798,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>jjackgoood</t>
+          <t>_.raya_</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -1808,7 +1808,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>tosha.bkv</t>
+          <t>kaatiekm</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -1818,7 +1818,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>dia.ecle</t>
+          <t>nayavelezz</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -1828,7 +1828,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>zh1ang3</t>
+          <t>siyu.0226</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -1838,7 +1838,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>dakshduttt</t>
+          <t>mattkosze</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -1848,7 +1848,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>blaniel_jones</t>
+          <t>clareoudard</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -1858,7 +1858,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>julia.xinyidu</t>
+          <t>lwilliam.huangl</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -1868,7 +1868,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>ian.xie_</t>
+          <t>arshbahl_</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -1878,7 +1878,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>vedxnt.31</t>
+          <t>kavya.s_6</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -1888,7 +1888,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>joejoe20051228</t>
+          <t>ryaankim_</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -1898,7 +1898,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>camila.zarama</t>
+          <t>kaylaportillo_</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -1908,7 +1908,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>jminl33</t>
+          <t>byrnes_14</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -1918,7 +1918,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>odonn311</t>
+          <t>_liamdonohue</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -1928,7 +1928,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>ogyil32</t>
+          <t>harman_kohli__</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -1938,7 +1938,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>flyingmeghan</t>
+          <t>chahat__rajawat</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -1948,7 +1948,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>sjoo.leee</t>
+          <t>emelinanabel</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -1958,7 +1958,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>benvol4</t>
+          <t>prikligerman</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -1968,7 +1968,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>ricardo_coates</t>
+          <t>julien.gonzalezp</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -1978,7 +1978,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>seanzsun</t>
+          <t>shiqiongp</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -1988,7 +1988,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>nyahmarie333</t>
+          <t>ozzy.km</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -1998,7 +1998,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>lawton_jordan</t>
+          <t>no5ah_frmca</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2008,7 +2008,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>mya.kellyy</t>
+          <t>pakr.05</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2018,7 +2018,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>zachsugerman</t>
+          <t>billyy.white</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2028,7 +2028,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>co_nnie3797</t>
+          <t>chrischo_04</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2038,7 +2038,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>_rachael_lin</t>
+          <t>faustinatavassoli</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2048,7 +2048,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>nandanipatell</t>
+          <t>jillianmurrayyy</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2058,7 +2058,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>_liamdonohue</t>
+          <t>merrikgiesen</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2068,7 +2068,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>dhruvar_</t>
+          <t>audrey.lee2</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2078,7 +2078,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>sohn4641</t>
+          <t>rose_mend3z</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2088,7 +2088,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>khamille05</t>
+          <t>nihithaadinesh</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2098,7 +2098,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>isabellepowers20</t>
+          <t>tierney.wiggins</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2108,7 +2108,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>hoanganhvu357</t>
+          <t>maritza.rodriguez617</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2118,7 +2118,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>sabrinanursekerlisoy</t>
+          <t>amydesiata</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2128,7 +2128,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>claudia.abramenko</t>
+          <t>jay110444</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2138,7 +2138,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>a_bakerbutler</t>
+          <t>seanzsun</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -2148,7 +2148,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>vyn._.snt</t>
+          <t>lixu476</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -2158,7 +2158,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>asbestossalad</t>
+          <t>pat0otsie</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -2168,7 +2168,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>_.raya_</t>
+          <t>ky.lee2907</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -2178,7 +2178,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>joey_rahmani</t>
+          <t>grace__robbins</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -2188,7 +2188,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>jkczyn</t>
+          <t>alyssazoe16</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -2198,7 +2198,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>blankademicheli</t>
+          <t>jwood_46</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -2208,7 +2208,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>jay.p25</t>
+          <t>theres_austin</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -2218,7 +2218,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>nickchip_</t>
+          <t>livv._.moon</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -2228,7 +2228,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>imparthprajapati</t>
+          <t>zzz_3lijy</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -2238,7 +2238,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>gabbs.o</t>
+          <t>uriel.206</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -2248,7 +2248,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>xavcla05</t>
+          <t>nandanipatell</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -2258,7 +2258,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>louis_savastano80</t>
+          <t>lilykthorpe</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -2268,7 +2268,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>pr1ncess.ty</t>
+          <t>zachtroderman</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -2278,7 +2278,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>_amyaugust_</t>
+          <t>just_jacob_sanchez</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -2288,7 +2288,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>emaliezhitomirsky</t>
+          <t>olearyranna</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -2298,7 +2298,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>williamkellyyyy</t>
+          <t>yulia_dubro</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -2308,7 +2308,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>celineuhrich</t>
+          <t>mae.nest</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -2318,7 +2318,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>jasma.z</t>
+          <t>eeshatalasila</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -2328,7 +2328,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>pfau.alexander</t>
+          <t>derenasicii</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -2338,7 +2338,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>adrianaxcruz</t>
+          <t>carly.stegall</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -2348,7 +2348,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>marcokurdoglu_</t>
+          <t>haydengreen05</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -2358,7 +2358,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>thomas_bleckman</t>
+          <t>mnema11</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -2368,7 +2368,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>dannytangold</t>
+          <t>pirgsr9</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -2378,7 +2378,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>iannuge</t>
+          <t>vedxnt.31</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -2388,7 +2388,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>katiejureidini</t>
+          <t>sonya_mancheva</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -2398,7 +2398,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>hbdo1106</t>
+          <t>zhqian_alison</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -2408,7 +2408,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>ntmon.nick</t>
+          <t>nicojqckson</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -2418,7 +2418,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>alex_k813</t>
+          <t>ambrish.goenka</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -2428,7 +2428,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>sevenisaloser</t>
+          <t>noah._.berger</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -2438,7 +2438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>katelynxrodriguez</t>
+          <t>khamille05</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -2448,7 +2448,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>gracelee.h</t>
+          <t>maura.kitterick</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -2458,7 +2458,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>deocalvo</t>
+          <t>zhenghe7777</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -2468,7 +2468,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>lolaremmert</t>
+          <t>rishik0103</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -2478,7 +2478,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>masonmurch27</t>
+          <t>lilyg164</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -2488,7 +2488,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>p.noelle.e</t>
+          <t>soumyamehtaa</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -2498,7 +2498,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>bryceet._</t>
+          <t>noam765</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -2508,7 +2508,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>kylieperales</t>
+          <t>jakegendra</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -2518,7 +2518,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>_claudiaesquivel_</t>
+          <t>jjlamoureuxx</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -2528,7 +2528,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>kiara_malvarez_</t>
+          <t>pfau.alexander</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -2538,7 +2538,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>anikaxsawhney</t>
+          <t>joejoe20051228</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -2548,7 +2548,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>hibafarzad</t>
+          <t>theeesthernet</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -2558,7 +2558,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>t_williams2309</t>
+          <t>gradientwch</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -2568,7 +2568,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>jason.yang0324</t>
+          <t>bharath_s27</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -2578,7 +2578,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>davidnco</t>
+          <t>sq21035</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -2588,7 +2588,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>joe__mitri</t>
+          <t>tffnyxn</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -2598,7 +2598,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>_noorhassann</t>
+          <t>devinmfisherr</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -2608,7 +2608,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>krista_sm1th</t>
+          <t>clydepaull</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -2618,7 +2618,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>_sarahtocci</t>
+          <t>19.sparsh</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -2628,7 +2628,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>justinjppark</t>
+          <t>rj.tvr</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -2638,7 +2638,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>ichauhan_12</t>
+          <t>rachel._.brennan</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -2648,7 +2648,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>kayaclay_</t>
+          <t>swagmoneymidas</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -2658,7 +2658,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>swayam.j</t>
+          <t>_sophielewis_</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -2668,7 +2668,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>arush.vyas</t>
+          <t>marcoramirez204</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -2678,7 +2678,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>ethan_lee57</t>
+          <t>eggyestelle</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -2688,7 +2688,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>gennysmithh</t>
+          <t>amyzhengg_</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -2698,7 +2698,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>marcelo_catalanoc</t>
+          <t>o_o_thelia</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -2708,7 +2708,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>mariapoltorykhina.1</t>
+          <t>julia.xinyidu</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -2718,7 +2718,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>grahamrichard.2</t>
+          <t>avaneesh373</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -2728,7 +2728,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>lilykthorpe</t>
+          <t>seann.zz</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -2738,7 +2738,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>pakr.05</t>
+          <t>adhiraj_6124</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -2748,7 +2748,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>keikoxcasserly</t>
+          <t>esther.ukpong9</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -2758,7 +2758,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>aanya.jhunjhunwala</t>
+          <t>phan_minhphuc</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -2768,7 +2768,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>kasvi.khanijow</t>
+          <t>mina.breen</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -2778,7 +2778,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>19.sparsh</t>
+          <t>_ethan_hayem</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -2788,7 +2788,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>k.rittii</t>
+          <t>tannerpiscatelli</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -2798,7 +2798,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>ella.vogel01</t>
+          <t>jessiexj_0517</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -2808,7 +2808,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>kamryn.gresko</t>
+          <t>zh1ang3</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -2818,7 +2818,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>sashaca11away</t>
+          <t>abdel.shousha</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -2828,7 +2828,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>sophiazxie</t>
+          <t>ashleytrann_</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -2838,7 +2838,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>yusen_hao005</t>
+          <t>hannabusby</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -2848,7 +2848,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>theeesthernet</t>
+          <t>pandd_m</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -2858,7 +2858,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>hilario_rodriguezzz</t>
+          <t>kylieperales</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -2868,7 +2868,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>nikbeltz</t>
+          <t>matt.ciceron</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -2878,7 +2878,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>austin.walton24</t>
+          <t>joey_rahmani</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -2888,7 +2888,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>kaatiekm</t>
+          <t>zacbakery</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -2898,7 +2898,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>erinertrn</t>
+          <t>olihettenbach</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -2908,7 +2908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>_shivendhawan_</t>
+          <t>dorsa.hajmaghani</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -2918,7 +2918,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>malena.ryckman</t>
+          <t>juju3y</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -2928,7 +2928,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>zanderjiyamapa</t>
+          <t>katebrodkiin</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -2938,7 +2938,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>juju3y</t>
+          <t>kayaclay_</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -2948,7 +2948,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>sebastian.kyujin</t>
+          <t>nikbeltz</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -2958,7 +2958,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>_alisson.wm</t>
+          <t>adrianaxcruz</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -2968,7 +2968,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>katherine.bopp</t>
+          <t>alexiah.leguisamon</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -2978,7 +2978,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>maayaoflaherty</t>
+          <t>kyliesieradzki</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -2988,7 +2988,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>ch.anel131</t>
+          <t>brianjohnson9824</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -2998,7 +2998,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>ashleybenoist_</t>
+          <t>thomaeday</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -3008,7 +3008,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>hannahkjungg</t>
+          <t>chrysnelll</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -3018,7 +3018,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>charlie__levy</t>
+          <t>avyukta2712</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -3028,7 +3028,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>jjlamoureuxx</t>
+          <t>jenalonzo.m</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -3038,7 +3038,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>marcoramirez204</t>
+          <t>austin.walton24</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -3048,7 +3048,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>nataliesuh</t>
+          <t>_erik.yang_</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -3058,7 +3058,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>karenlin474</t>
+          <t>fake_flame8510</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -3068,7 +3068,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>katyyy.lm</t>
+          <t>yihanhanyang</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -3078,7 +3078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>tannerpiscatelli</t>
+          <t>catherine._.mz</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -3088,7 +3088,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>tahirasmith1</t>
+          <t>bryson_whitaker88</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -3098,7 +3098,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>jadewill16</t>
+          <t>harrylyu1</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -3108,7 +3108,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>toby6105</t>
+          <t>prathulya.vadlamudi</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -3118,7 +3118,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>e1hamd</t>
+          <t>riley.lackey</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -3128,7 +3128,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>piperjiyamapa</t>
+          <t>benmstarr</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -3138,7 +3138,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>sofia_restivo</t>
+          <t>rowan.wngt</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -3148,7 +3148,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>_rthayashi_</t>
+          <t>ameliabaezzz</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -3158,7 +3158,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>a.i.ting</t>
+          <t>samridhi__p</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -3168,7 +3168,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>clara.raquel.a</t>
+          <t>joseph.allen05</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -3178,7 +3178,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>tony_dddddd</t>
+          <t>julessdamato</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -3188,7 +3188,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>sofiabergeron_</t>
+          <t>hiba_asadulla</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -3198,7 +3198,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>aandreascarano</t>
+          <t>christian.mtute</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -3208,7 +3208,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>_charlottetycheung</t>
+          <t>saranyhsu</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -3218,7 +3218,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>n.o.r.a.h_laurent</t>
+          <t>haydensm1thh</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -3228,7 +3228,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>kush.lw</t>
+          <t>clxirewu</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -3238,7 +3238,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>hiyayushi19</t>
+          <t>mathis.seidl</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -3248,7 +3248,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>dhritichetty</t>
+          <t>fuzzy.ayub</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -3258,7 +3258,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>alyssazoe16</t>
+          <t>kyleighh.page</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -3268,7 +3268,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>joeyhg_</t>
+          <t>_vpatel24</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -3278,7 +3278,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>cyrus.izk</t>
+          <t>malachi.b29</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -3288,7 +3288,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>ethan.aramboles</t>
+          <t>leofj_611</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -3298,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>cyk___0829</t>
+          <t>dnizoge</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -3308,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>anac_yeyee</t>
+          <t>joeyhg_</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -3318,7 +3318,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>lsot2023</t>
+          <t>fnrnado</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -3328,7 +3328,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>nicoledebow</t>
+          <t>joeulamb</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -3338,7 +3338,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>soumyamehtaa</t>
+          <t>rog_nam</t>
         </is>
       </c>
       <c r="B291" t="b">
@@ -3348,7 +3348,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>clareoudard</t>
+          <t>stacyyjoy</t>
         </is>
       </c>
       <c r="B292" t="b">
@@ -3358,7 +3358,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>sam_offsey</t>
+          <t>reyes__julio</t>
         </is>
       </c>
       <c r="B293" t="b">
@@ -3368,7 +3368,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>esther.ukpong9</t>
+          <t>laurenaliviawood</t>
         </is>
       </c>
       <c r="B294" t="b">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>ryaankim_</t>
+          <t>katelynxrodriguez</t>
         </is>
       </c>
       <c r="B295" t="b">
@@ -3388,7 +3388,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>anyaperuvemba</t>
+          <t>sakshi_idk_idc_ugh</t>
         </is>
       </c>
       <c r="B296" t="b">
@@ -3398,7 +3398,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>alessandrawemm</t>
+          <t>abbyvmcmanus</t>
         </is>
       </c>
       <c r="B297" t="b">
@@ -3408,7 +3408,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>rahul.vas17</t>
+          <t>keziah.danso</t>
         </is>
       </c>
       <c r="B298" t="b">
@@ -3418,7 +3418,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>_riyapatel17</t>
+          <t>ocedinsmore</t>
         </is>
       </c>
       <c r="B299" t="b">
@@ -3428,7 +3428,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>lwilliam.huangl</t>
+          <t>tony.melki</t>
         </is>
       </c>
       <c r="B300" t="b">
@@ -3438,7 +3438,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>kelvvin.f</t>
+          <t>jay.p25</t>
         </is>
       </c>
       <c r="B301" t="b">
@@ -3448,1271 +3448,971 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>rachel._.brennan</t>
+          <t>nickchip_</t>
         </is>
       </c>
       <c r="B302" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>bryson_whitaker88</t>
+          <t>rachellhk</t>
         </is>
       </c>
       <c r="B303" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>ben_bickel</t>
+          <t>frank._yang</t>
         </is>
       </c>
       <c r="B304" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>sana.muneer26</t>
+          <t>madison.ingersoll</t>
         </is>
       </c>
       <c r="B305" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>lids.palmer</t>
+          <t>williamkellyyyy</t>
         </is>
       </c>
       <c r="B306" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>jenalonzo.m</t>
+          <t>foogie_04</t>
         </is>
       </c>
       <c r="B307" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>amita.ganesh.549</t>
+          <t>jkczyn</t>
         </is>
       </c>
       <c r="B308" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>traci_.w</t>
+          <t>m.aydaymayday</t>
         </is>
       </c>
       <c r="B309" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>carlosxlozano</t>
+          <t>dhruvar_</t>
         </is>
       </c>
       <c r="B310" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>_azariag_</t>
+          <t>kenny_phannn</t>
         </is>
       </c>
       <c r="B311" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>bella__ily</t>
+          <t>mithun_makam</t>
         </is>
       </c>
       <c r="B312" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>just_jacob_sanchez</t>
+          <t>_katrinatrimble_</t>
         </is>
       </c>
       <c r="B313" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>lucapiekarski</t>
+          <t>jeanne_cohen5</t>
         </is>
       </c>
       <c r="B314" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>lizlovesdabbing</t>
+          <t>kaanchi.parameswaran</t>
         </is>
       </c>
       <c r="B315" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>bklynemily</t>
+          <t>amberbirkett</t>
         </is>
       </c>
       <c r="B316" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>xingxingzii</t>
+          <t>adenlazaruss</t>
         </is>
       </c>
       <c r="B317" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>h0pespann</t>
+          <t>jasmine_jddd</t>
         </is>
       </c>
       <c r="B318" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>mae.nest</t>
+          <t>hiyayushi19</t>
         </is>
       </c>
       <c r="B319" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>timc0719</t>
+          <t>marie_liza1</t>
         </is>
       </c>
       <c r="B320" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>k12awesomeness</t>
+          <t>victoriamarquardt_</t>
         </is>
       </c>
       <c r="B321" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>nadeera_ali</t>
+          <t>trevor.ruberti</t>
         </is>
       </c>
       <c r="B322" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>osiris_76</t>
+          <t>codyymm_</t>
         </is>
       </c>
       <c r="B323" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>ginamartiniello</t>
+          <t>lizlovesdabbing</t>
         </is>
       </c>
       <c r="B324" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>yohanchun_</t>
+          <t>mich.i.elle</t>
         </is>
       </c>
       <c r="B325" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>drew_thomas09</t>
+          <t>mela.niec24</t>
         </is>
       </c>
       <c r="B326" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>evan.skiahrobba</t>
+          <t>seherazaf._</t>
         </is>
       </c>
       <c r="B327" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>ruthdinberu</t>
+          <t>chasee_kk</t>
         </is>
       </c>
       <c r="B328" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>brookeewileyy</t>
+          <t>mbergin.21</t>
         </is>
       </c>
       <c r="B329" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>reyes__julio</t>
+          <t>nealc.25</t>
         </is>
       </c>
       <c r="B330" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>v.satir</t>
+          <t>squiggly_spine</t>
         </is>
       </c>
       <c r="B331" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>joshstorm820</t>
+          <t>michael_lel</t>
         </is>
       </c>
       <c r="B332" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>sabina.strautnieks</t>
+          <t>aastha.0507</t>
         </is>
       </c>
       <c r="B333" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>charlietuckerman</t>
+          <t>eshaxbhutani</t>
         </is>
       </c>
       <c r="B334" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>sarina.s27</t>
+          <t>pr1ncess.ty</t>
         </is>
       </c>
       <c r="B335" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>julia.tran2609</t>
+          <t>miaaa.overbo</t>
         </is>
       </c>
       <c r="B336" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>anaghaa_xx</t>
+          <t>marjdrews</t>
         </is>
       </c>
       <c r="B337" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>safiyasel</t>
+          <t>nataliewuu_</t>
         </is>
       </c>
       <c r="B338" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>willmaglione</t>
+          <t>naomiii_xs</t>
         </is>
       </c>
       <c r="B339" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>saschasalat</t>
+          <t>xenia.politis</t>
         </is>
       </c>
       <c r="B340" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>edward_a_moss</t>
+          <t>ginamartiniello</t>
         </is>
       </c>
       <c r="B341" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>abbyvmcmanus</t>
+          <t>katherine.bopp</t>
         </is>
       </c>
       <c r="B342" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>keirafooter</t>
+          <t>jminl33</t>
         </is>
       </c>
       <c r="B343" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>lestawanandi</t>
+          <t>andrew_rk04</t>
         </is>
       </c>
       <c r="B344" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>tweedie_bird19</t>
+          <t>anthonyb_27</t>
         </is>
       </c>
       <c r="B345" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>eleanorsomin</t>
+          <t>emilyshaw2511</t>
         </is>
       </c>
       <c r="B346" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>emm_lgpm</t>
+          <t>m_asoto21</t>
         </is>
       </c>
       <c r="B347" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>ava.ahn</t>
+          <t>elliot_teague_</t>
         </is>
       </c>
       <c r="B348" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>lucyli.6</t>
+          <t>ryan_slater805</t>
         </is>
       </c>
       <c r="B349" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>tomoki_narukawa</t>
+          <t>roni.rodriguezz</t>
         </is>
       </c>
       <c r="B350" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>siyu.0226</t>
+          <t>rahul.vas17</t>
         </is>
       </c>
       <c r="B351" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>shahyad_khamnei</t>
+          <t>tnilweera</t>
         </is>
       </c>
       <c r="B352" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>leighton_quinn6</t>
+          <t>mya.kellyy</t>
         </is>
       </c>
       <c r="B353" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>komurcuoglu_</t>
+          <t>sahild_24</t>
         </is>
       </c>
       <c r="B354" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>cian.mosss</t>
+          <t>ayoitsilhan</t>
         </is>
       </c>
       <c r="B355" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>stellaaa.058</t>
+          <t>gr4ceroberts</t>
         </is>
       </c>
       <c r="B356" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>nicojqckson</t>
+          <t>ryryrywu</t>
         </is>
       </c>
       <c r="B357" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>lockietay9</t>
+          <t>drmelissalazarus</t>
         </is>
       </c>
       <c r="B358" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>michael_lel</t>
+          <t>ellajamesgrossman</t>
         </is>
       </c>
       <c r="B359" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>marvinlau_</t>
+          <t>sofialevesque_</t>
         </is>
       </c>
       <c r="B360" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>jakeprue10</t>
+          <t>owenhackerr</t>
         </is>
       </c>
       <c r="B361" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>thomasidrobo</t>
+          <t>_mervetemel</t>
         </is>
       </c>
       <c r="B362" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>eric.847</t>
+          <t>avarestivo</t>
         </is>
       </c>
       <c r="B363" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>arize_nwike</t>
+          <t>__mizzy.bear</t>
         </is>
       </c>
       <c r="B364" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>sam.genzer</t>
+          <t>frenkelpolya</t>
         </is>
       </c>
       <c r="B365" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>austinsheppard_</t>
+          <t>bryceet._</t>
         </is>
       </c>
       <c r="B366" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>lzxx_alisa</t>
+          <t>miranda_west11</t>
         </is>
       </c>
       <c r="B367" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>iluvjoselynn</t>
+          <t>chloecapizzi</t>
         </is>
       </c>
       <c r="B368" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>annaleeedgar</t>
+          <t>sashaca11away</t>
         </is>
       </c>
       <c r="B369" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>thomaeday</t>
+          <t>remmie244</t>
         </is>
       </c>
       <c r="B370" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>joycebccc</t>
+          <t>louis_savastano80</t>
         </is>
       </c>
       <c r="B371" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>codyymm_</t>
+          <t>_elmercortez_</t>
         </is>
       </c>
       <c r="B372" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>_f.borkowski_</t>
+          <t>maayaoflaherty</t>
         </is>
       </c>
       <c r="B373" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>_shawnaliu_</t>
+          <t>aryonchheda</t>
         </is>
       </c>
       <c r="B374" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>johanncontreras_</t>
+          <t>murtazakhalil10</t>
         </is>
       </c>
       <c r="B375" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>catherine._.mz</t>
+          <t>kiara_malvarez_</t>
         </is>
       </c>
       <c r="B376" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>moriah.johnz</t>
+          <t>__destinycruz</t>
         </is>
       </c>
       <c r="B377" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>aastha.0507</t>
+          <t>kennie.k_4</t>
         </is>
       </c>
       <c r="B378" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>molly.potts_</t>
+          <t>_shivendhawan_</t>
         </is>
       </c>
       <c r="B379" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>isaacchn_</t>
+          <t>jessica_yann_</t>
         </is>
       </c>
       <c r="B380" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>anthony_dipaolo176</t>
+          <t>xo.itsav</t>
         </is>
       </c>
       <c r="B381" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>reese.alesi</t>
+          <t>khushi.mirpuri</t>
         </is>
       </c>
       <c r="B382" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>hannahclark5067</t>
+          <t>aravindaksha_ishaanpp</t>
         </is>
       </c>
       <c r="B383" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>shunsuke_1222</t>
+          <t>moriah.johnz</t>
         </is>
       </c>
       <c r="B384" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>_katrinatrimble_</t>
+          <t>lillie_brownn</t>
         </is>
       </c>
       <c r="B385" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>isabella26_t</t>
+          <t>giagupta10</t>
         </is>
       </c>
       <c r="B386" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>robison.sierra</t>
+          <t>dakshduttt</t>
         </is>
       </c>
       <c r="B387" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>ahyer23</t>
+          <t>scarlett_mandil</t>
         </is>
       </c>
       <c r="B388" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>alexxbloombergg</t>
+          <t>santisteinman</t>
         </is>
       </c>
       <c r="B389" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>dawn.zahler</t>
+          <t>h0pespann</t>
         </is>
       </c>
       <c r="B390" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>fuzzy.ayub</t>
+          <t>sam.genzer</t>
         </is>
       </c>
       <c r="B391" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>ssumar0811</t>
+          <t>andrewagbay</t>
         </is>
       </c>
       <c r="B392" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>olearyranna</t>
+          <t>j.d.peng</t>
         </is>
       </c>
       <c r="B393" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>phoebemilller_</t>
+          <t>simrankgoraya</t>
         </is>
       </c>
       <c r="B394" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>izzydorfman</t>
+          <t>marakorz</t>
         </is>
       </c>
       <c r="B395" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>swagmoneymidas</t>
+          <t>ivn.chxn</t>
         </is>
       </c>
       <c r="B396" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>emma.l37</t>
+          <t>_rthayashi_</t>
         </is>
       </c>
       <c r="B397" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>kenny_phannn</t>
+          <t>rachel.feinstein2</t>
         </is>
       </c>
       <c r="B398" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="inlineStr">
-        <is>
-          <t>gradientwch</t>
-        </is>
-      </c>
-      <c r="B399" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="inlineStr">
-        <is>
-          <t>_sophielewis_</t>
-        </is>
-      </c>
-      <c r="B400" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="inlineStr">
-        <is>
-          <t>christian.mtute</t>
-        </is>
-      </c>
-      <c r="B401" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="inlineStr">
-        <is>
-          <t>robbie_45045</t>
-        </is>
-      </c>
-      <c r="B402" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="inlineStr">
-        <is>
-          <t>hannahpagsibigan</t>
-        </is>
-      </c>
-      <c r="B403" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="inlineStr">
-        <is>
-          <t>kvilleda1219</t>
-        </is>
-      </c>
-      <c r="B404" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="inlineStr">
-        <is>
-          <t>stacyyjoy</t>
-        </is>
-      </c>
-      <c r="B405" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="inlineStr">
-        <is>
-          <t>zacbakery</t>
-        </is>
-      </c>
-      <c r="B406" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="inlineStr">
-        <is>
-          <t>mathis.seidl</t>
-        </is>
-      </c>
-      <c r="B407" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="inlineStr">
-        <is>
-          <t>sahild_24</t>
-        </is>
-      </c>
-      <c r="B408" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="inlineStr">
-        <is>
-          <t>prikligerman</t>
-        </is>
-      </c>
-      <c r="B409" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="inlineStr">
-        <is>
-          <t>avyukta2712</t>
-        </is>
-      </c>
-      <c r="B410" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="inlineStr">
-        <is>
-          <t>walt_360</t>
-        </is>
-      </c>
-      <c r="B411" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="inlineStr">
-        <is>
-          <t>francic123</t>
-        </is>
-      </c>
-      <c r="B412" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="inlineStr">
-        <is>
-          <t>miaapopovicc</t>
-        </is>
-      </c>
-      <c r="B413" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="inlineStr">
-        <is>
-          <t>dhruv_sardana05</t>
-        </is>
-      </c>
-      <c r="B414" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" t="inlineStr">
-        <is>
-          <t>andrewagbay</t>
-        </is>
-      </c>
-      <c r="B415" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="inlineStr">
-        <is>
-          <t>gr4ceroberts</t>
-        </is>
-      </c>
-      <c r="B416" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" t="inlineStr">
-        <is>
-          <t>emmagoldenberg_</t>
-        </is>
-      </c>
-      <c r="B417" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" t="inlineStr">
-        <is>
-          <t>b.e.c.k_w_i_n_t_e_r</t>
-        </is>
-      </c>
-      <c r="B418" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" t="inlineStr">
-        <is>
-          <t>youlovejbens</t>
-        </is>
-      </c>
-      <c r="B419" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" t="inlineStr">
-        <is>
-          <t>chanhyeoglee</t>
-        </is>
-      </c>
-      <c r="B420" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" t="inlineStr">
-        <is>
-          <t>tamarrotemm</t>
-        </is>
-      </c>
-      <c r="B421" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="inlineStr">
-        <is>
-          <t>miranda_west11</t>
-        </is>
-      </c>
-      <c r="B422" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="inlineStr">
-        <is>
-          <t>aadhyyaasood</t>
-        </is>
-      </c>
-      <c r="B423" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" t="inlineStr">
-        <is>
-          <t>hihi_himmyy</t>
-        </is>
-      </c>
-      <c r="B424" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" t="inlineStr">
-        <is>
-          <t>aaron.smith1788</t>
-        </is>
-      </c>
-      <c r="B425" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" t="inlineStr">
-        <is>
-          <t>skyeelauren</t>
-        </is>
-      </c>
-      <c r="B426" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" t="inlineStr">
-        <is>
-          <t>nickbruno12</t>
-        </is>
-      </c>
-      <c r="B427" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" t="inlineStr">
-        <is>
-          <t>brianjohnson9824</t>
-        </is>
-      </c>
-      <c r="B428" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
